--- a/results/mp/deberta/corona/confidence/168/stop-words-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-masking-0.5/avg_0.002_scores.xlsx
@@ -202,15 +202,15 @@
     <t>game</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
@@ -229,22 +229,22 @@
     <t>hope</t>
   </si>
   <si>
+    <t>offer</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>offering</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>offer</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>update</t>
-  </si>
-  <si>
-    <t>offering</t>
-  </si>
-  <si>
-    <t>ready</t>
   </si>
   <si>
     <t>worth</t>
@@ -2618,25 +2618,25 @@
         <v>62</v>
       </c>
       <c r="K33">
-        <v>0.6939655172413793</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L33">
-        <v>161</v>
+        <v>35</v>
       </c>
       <c r="M33">
-        <v>168</v>
+        <v>35</v>
       </c>
       <c r="N33">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -2644,13 +2644,13 @@
         <v>63</v>
       </c>
       <c r="K34">
-        <v>0.6862745098039216</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L34">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="M34">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2662,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -2670,13 +2670,13 @@
         <v>64</v>
       </c>
       <c r="K35">
-        <v>0.6857142857142857</v>
+        <v>0.6736401673640168</v>
       </c>
       <c r="L35">
-        <v>24</v>
+        <v>161</v>
       </c>
       <c r="M35">
-        <v>24</v>
+        <v>161</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2688,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>11</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -2852,25 +2852,25 @@
         <v>71</v>
       </c>
       <c r="K42">
-        <v>0.6128048780487805</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L42">
-        <v>201</v>
+        <v>14</v>
       </c>
       <c r="M42">
-        <v>213</v>
+        <v>14</v>
       </c>
       <c r="N42">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>127</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2904,13 +2904,13 @@
         <v>73</v>
       </c>
       <c r="K44">
-        <v>0.6086956521739131</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L44">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M44">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2922,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2930,25 +2930,25 @@
         <v>74</v>
       </c>
       <c r="K45">
-        <v>0.6060606060606061</v>
+        <v>0.6</v>
       </c>
       <c r="L45">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M45">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2956,13 +2956,13 @@
         <v>75</v>
       </c>
       <c r="K46">
-        <v>0.6</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L46">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M46">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N46">
         <v>0.9399999999999999</v>
@@ -2974,7 +2974,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2982,25 +2982,25 @@
         <v>76</v>
       </c>
       <c r="K47">
-        <v>0.5925925925925926</v>
+        <v>0.5911764705882353</v>
       </c>
       <c r="L47">
-        <v>16</v>
+        <v>201</v>
       </c>
       <c r="M47">
-        <v>17</v>
+        <v>201</v>
       </c>
       <c r="N47">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>11</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48" spans="10:17">
